--- a/medicine/Handicap/Emergency_(organisation)/Emergency_(organisation).xlsx
+++ b/medicine/Handicap/Emergency_(organisation)/Emergency_(organisation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emergency est une ONGI fondée par le chirurgien de guerre italien Gino Strada. C'est une association humanitaire internationale qui s'occupe aussi de la rééducation des victimes de la guerre et des mines terrestres. Emergency fournit une aide médicale dans des zones de guerre ou de grande pauvreté (Irak, Afghanistan, Soudan, Sierra Leone, Cambodge, République centrafricaine) et aux migrants dans sa clinique italienne à Palerme.
 </t>
